--- a/test/工作簿1.xlsx
+++ b/test/工作簿1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\c4r\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,3619 +351,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:WB2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="FU1" workbookViewId="0">
       <selection activeCell="GD1" sqref="A1:WB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:600" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>-2</v>
-      </c>
-      <c r="B1">
-        <v>-2</v>
-      </c>
-      <c r="C1">
-        <v>-2</v>
-      </c>
-      <c r="D1">
-        <v>-2</v>
-      </c>
-      <c r="E1">
-        <v>-2</v>
-      </c>
-      <c r="F1">
-        <v>-2</v>
-      </c>
-      <c r="G1">
-        <v>-2</v>
-      </c>
-      <c r="H1">
-        <v>-2</v>
-      </c>
-      <c r="I1">
-        <v>-2</v>
-      </c>
-      <c r="J1">
-        <v>-2</v>
-      </c>
-      <c r="K1">
-        <v>-2</v>
-      </c>
-      <c r="L1">
-        <v>-2.0000100000000001</v>
-      </c>
-      <c r="M1">
-        <v>-2.0000100000000001</v>
-      </c>
-      <c r="N1">
-        <v>-2.0000100000000001</v>
-      </c>
-      <c r="O1">
-        <v>-2.0000100000000001</v>
-      </c>
-      <c r="P1">
-        <v>-2.0000100000000001</v>
-      </c>
-      <c r="Q1">
-        <v>-2.0000100000000001</v>
-      </c>
-      <c r="R1">
-        <v>-2.0000100000000001</v>
-      </c>
-      <c r="S1">
-        <v>-2.0000100000000001</v>
-      </c>
-      <c r="T1">
-        <v>-2.0000100000000001</v>
-      </c>
-      <c r="U1">
-        <v>-2.0000100000000001</v>
-      </c>
-      <c r="V1">
-        <v>-2.0000100000000001</v>
-      </c>
-      <c r="W1">
-        <v>-2.0000100000000001</v>
-      </c>
-      <c r="X1">
-        <v>-2.0000100000000001</v>
-      </c>
-      <c r="Y1">
-        <v>-2.0000100000000001</v>
-      </c>
-      <c r="Z1">
-        <v>-2.0000100000000001</v>
-      </c>
-      <c r="AA1">
-        <v>-2.0000100000000001</v>
-      </c>
-      <c r="AB1">
-        <v>-2.0000100000000001</v>
-      </c>
-      <c r="AC1">
-        <v>-2.0000100000000001</v>
-      </c>
-      <c r="AD1">
-        <v>-2.0000100000000001</v>
-      </c>
-      <c r="AE1">
-        <v>-2.0000100000000001</v>
-      </c>
-      <c r="AF1">
-        <v>-2.0000200000000001</v>
-      </c>
-      <c r="AG1">
-        <v>-2.0000200000000001</v>
-      </c>
-      <c r="AH1">
-        <v>-2.0000200000000001</v>
-      </c>
-      <c r="AI1">
-        <v>-2.0000200000000001</v>
-      </c>
-      <c r="AJ1">
-        <v>-2.0000300000000002</v>
-      </c>
-      <c r="AK1">
-        <v>-2.0000300000000002</v>
-      </c>
-      <c r="AL1">
-        <v>-2.0000399999999998</v>
-      </c>
-      <c r="AM1">
-        <v>-2.0000499999999999</v>
-      </c>
-      <c r="AN1">
-        <v>-2.0000599999999999</v>
-      </c>
-      <c r="AO1">
-        <v>-2.0000800000000001</v>
-      </c>
-      <c r="AP1">
-        <v>-2.0001000000000002</v>
-      </c>
-      <c r="AQ1">
-        <v>-2.0001099999999998</v>
-      </c>
-      <c r="AR1">
-        <v>-2.00014</v>
-      </c>
-      <c r="AS1">
-        <v>-2.0001600000000002</v>
-      </c>
-      <c r="AT1">
-        <v>-2.0001899999999999</v>
-      </c>
-      <c r="AU1">
-        <v>-2.0002300000000002</v>
-      </c>
-      <c r="AV1">
-        <v>-2.0002800000000001</v>
-      </c>
-      <c r="AW1">
-        <v>-2.0003299999999999</v>
-      </c>
-      <c r="AX1">
-        <v>-2.0003899999999999</v>
-      </c>
-      <c r="AY1">
-        <v>-2.0004599999999999</v>
-      </c>
-      <c r="AZ1">
-        <v>-2.00054</v>
-      </c>
-      <c r="BA1">
-        <v>-2.0006300000000001</v>
-      </c>
-      <c r="BB1">
-        <v>-2.00074</v>
-      </c>
-      <c r="BC1">
-        <v>-2.0008599999999999</v>
-      </c>
-      <c r="BD1">
-        <v>-2.0009899999999998</v>
-      </c>
-      <c r="BE1">
-        <v>-2.0011399999999999</v>
-      </c>
-      <c r="BF1">
-        <v>-2.0013100000000001</v>
-      </c>
-      <c r="BG1">
-        <v>-2.0015000000000001</v>
-      </c>
-      <c r="BH1">
-        <v>-2.0017100000000001</v>
-      </c>
-      <c r="BI1">
-        <v>-2.0019399999999998</v>
-      </c>
-      <c r="BJ1">
-        <v>-2.0022000000000002</v>
-      </c>
-      <c r="BK1">
-        <v>-2.0024799999999998</v>
-      </c>
-      <c r="BL1">
-        <v>-2.0027900000000001</v>
-      </c>
-      <c r="BM1">
-        <v>-2.0031300000000001</v>
-      </c>
-      <c r="BN1">
-        <v>-2.0035099999999999</v>
-      </c>
-      <c r="BO1">
-        <v>-2.0039199999999999</v>
-      </c>
-      <c r="BP1">
-        <v>-2.0043700000000002</v>
-      </c>
-      <c r="BQ1">
-        <v>-2.0048499999999998</v>
-      </c>
-      <c r="BR1">
-        <v>-2.0053800000000002</v>
-      </c>
-      <c r="BS1">
-        <v>-2.0059499999999999</v>
-      </c>
-      <c r="BT1">
-        <v>-2.0065900000000001</v>
-      </c>
-      <c r="BU1">
-        <v>-2.0073400000000001</v>
-      </c>
-      <c r="BV1">
-        <v>-2.00813</v>
-      </c>
-      <c r="BW1">
-        <v>-2.0098799999999999</v>
-      </c>
-      <c r="BX1">
-        <v>-2.0107300000000001</v>
-      </c>
-      <c r="BY1">
-        <v>-2.0123000000000002</v>
-      </c>
-      <c r="BZ1">
-        <v>-2.0133899999999998</v>
-      </c>
-      <c r="CA1">
-        <v>-2.01444</v>
-      </c>
-      <c r="CB1">
-        <v>-2.1513800000000001</v>
-      </c>
-      <c r="CC1">
-        <v>-2.12575</v>
-      </c>
-      <c r="CD1">
-        <v>-2.1835499999999999</v>
-      </c>
-      <c r="CE1">
-        <v>-2.0760700000000001</v>
-      </c>
-      <c r="CF1">
-        <v>-2.1793399999999998</v>
-      </c>
-      <c r="CG1">
-        <v>-2.0365099999999998</v>
-      </c>
-      <c r="CH1">
-        <v>-2.03837</v>
-      </c>
-      <c r="CI1">
-        <v>-2.04033</v>
-      </c>
-      <c r="CJ1">
-        <v>-2.0423800000000001</v>
-      </c>
-      <c r="CK1">
-        <v>-2.2580800000000001</v>
-      </c>
-      <c r="CL1">
-        <v>-2.0610499999999998</v>
-      </c>
-      <c r="CM1">
-        <v>-2.0636800000000002</v>
-      </c>
-      <c r="CN1">
-        <v>-2.0726100000000001</v>
-      </c>
-      <c r="CO1">
-        <v>-2.0756299999999999</v>
-      </c>
-      <c r="CP1">
-        <v>-2.0992199999999999</v>
-      </c>
-      <c r="CQ1">
-        <v>-2.10284</v>
-      </c>
-      <c r="CR1">
-        <v>-2.1066500000000001</v>
-      </c>
-      <c r="CS1">
-        <v>-2.3893399999999998</v>
-      </c>
-      <c r="CT1">
-        <v>-2.1548500000000002</v>
-      </c>
-      <c r="CU1">
-        <v>-2.16994</v>
-      </c>
-      <c r="CV1">
-        <v>-2.2226900000000001</v>
-      </c>
-      <c r="CW1">
-        <v>-2.2564799999999998</v>
-      </c>
-      <c r="CX1">
-        <v>-2.2643200000000001</v>
-      </c>
-      <c r="CY1">
-        <v>-2.40917</v>
-      </c>
-      <c r="CZ1">
-        <v>-2.4800399999999998</v>
-      </c>
-      <c r="DA1">
-        <v>-2.3449599999999999</v>
-      </c>
-      <c r="DB1">
-        <v>-2.3542399999999999</v>
-      </c>
-      <c r="DC1">
-        <v>-2.3639600000000001</v>
-      </c>
-      <c r="DD1">
-        <v>-2.3735300000000001</v>
-      </c>
-      <c r="DE1">
-        <v>-2.5744799999999999</v>
-      </c>
-      <c r="DF1">
-        <v>-2.4367200000000002</v>
-      </c>
-      <c r="DG1">
-        <v>-2.4471500000000002</v>
-      </c>
-      <c r="DH1">
-        <v>-2.4577300000000002</v>
-      </c>
-      <c r="DI1">
-        <v>-2.4683299999999999</v>
-      </c>
-      <c r="DJ1">
-        <v>-2.4789599999999998</v>
-      </c>
-      <c r="DK1">
-        <v>-2.61985</v>
-      </c>
-      <c r="DL1">
-        <v>-2.5597699999999999</v>
-      </c>
-      <c r="DM1">
-        <v>-2.6875100000000001</v>
-      </c>
-      <c r="DN1">
-        <v>-2.5714100000000002</v>
-      </c>
-      <c r="DO1">
-        <v>-2.5846900000000002</v>
-      </c>
-      <c r="DP1">
-        <v>-2.59632</v>
-      </c>
-      <c r="DQ1">
-        <v>-2.6080299999999998</v>
-      </c>
-      <c r="DR1">
-        <v>-2.6445799999999999</v>
-      </c>
-      <c r="DS1">
-        <v>-2.6565599999999998</v>
-      </c>
-      <c r="DT1">
-        <v>-2.6686399999999999</v>
-      </c>
-      <c r="DU1">
-        <v>-2.6807300000000001</v>
-      </c>
-      <c r="DV1">
-        <v>-2.72153</v>
-      </c>
-      <c r="DW1">
-        <v>-2.7343700000000002</v>
-      </c>
-      <c r="DX1">
-        <v>-2.7465199999999999</v>
-      </c>
-      <c r="DY1">
-        <v>-2.7589999999999999</v>
-      </c>
-      <c r="DZ1">
-        <v>-2.7716699999999999</v>
-      </c>
-      <c r="EA1">
-        <v>-2.80084</v>
-      </c>
-      <c r="EB1">
-        <v>-2.8136700000000001</v>
-      </c>
-      <c r="EC1">
-        <v>-2.8265199999999999</v>
-      </c>
-      <c r="ED1">
-        <v>-2.8394499999999998</v>
-      </c>
-      <c r="EE1">
-        <v>-2.9379499999999998</v>
-      </c>
-      <c r="EF1">
-        <v>-2.9036200000000001</v>
-      </c>
-      <c r="EG1">
-        <v>-2.91683</v>
-      </c>
-      <c r="EH1">
-        <v>-2.9289100000000001</v>
-      </c>
-      <c r="EI1">
-        <v>-2.9436599999999999</v>
-      </c>
-      <c r="EJ1">
-        <v>-2.95566</v>
-      </c>
-      <c r="EK1">
-        <v>-2.97051</v>
-      </c>
-      <c r="EL1">
-        <v>-2.98251</v>
-      </c>
-      <c r="EM1">
-        <v>-3.0148999999999999</v>
-      </c>
-      <c r="EN1">
-        <v>-3.0287999999999999</v>
-      </c>
-      <c r="EO1">
-        <v>-3.0438299999999998</v>
-      </c>
-      <c r="EP1">
-        <v>-3.0561600000000002</v>
-      </c>
-      <c r="EQ1">
-        <v>-3.0937899999999998</v>
-      </c>
-      <c r="ER1">
-        <v>-3.10772</v>
-      </c>
-      <c r="ES1">
-        <v>-3.1216599999999999</v>
-      </c>
-      <c r="ET1">
-        <v>-3.1356199999999999</v>
-      </c>
-      <c r="EU1">
-        <v>-3.1617000000000002</v>
-      </c>
-      <c r="EV1">
-        <v>-3.17578</v>
-      </c>
-      <c r="EW1">
-        <v>-3.19584</v>
-      </c>
-      <c r="EX1">
-        <v>-3.21001</v>
-      </c>
-      <c r="EY1">
-        <v>-3.23746</v>
-      </c>
-      <c r="EZ1">
-        <v>-3.24085</v>
-      </c>
-      <c r="FA1">
-        <v>-3.2641499999999999</v>
-      </c>
-      <c r="FB1">
-        <v>-3.2802500000000001</v>
-      </c>
-      <c r="FC1">
-        <v>-3.2945799999999998</v>
-      </c>
-      <c r="FD1">
-        <v>-3.3090000000000002</v>
-      </c>
-      <c r="FE1">
-        <v>-3.32335</v>
-      </c>
-      <c r="FF1">
-        <v>-3.33772</v>
-      </c>
-      <c r="FG1">
-        <v>-3.3521399999999999</v>
-      </c>
-      <c r="FH1">
-        <v>-3.3666200000000002</v>
-      </c>
-      <c r="FI1">
-        <v>-3.3811100000000001</v>
-      </c>
-      <c r="FJ1">
-        <v>-3.39547</v>
-      </c>
-      <c r="FK1">
-        <v>-3.4099599999999999</v>
-      </c>
-      <c r="FL1">
-        <v>-3.4245399999999999</v>
-      </c>
-      <c r="FM1">
-        <v>-3.4390700000000001</v>
-      </c>
-      <c r="FN1">
-        <v>-3.4535499999999999</v>
-      </c>
-      <c r="FO1">
-        <v>-3.4681500000000001</v>
-      </c>
-      <c r="FP1">
-        <v>-3.4826999999999999</v>
-      </c>
-      <c r="FQ1">
-        <v>-3.4972599999999998</v>
-      </c>
-      <c r="FR1">
-        <v>-3.5117099999999999</v>
-      </c>
-      <c r="FS1">
-        <v>-3.5263200000000001</v>
-      </c>
-      <c r="FT1">
-        <v>-3.5409199999999998</v>
-      </c>
-      <c r="FU1">
-        <v>-3.55559</v>
-      </c>
-      <c r="FV1">
-        <v>-3.5702799999999999</v>
-      </c>
-      <c r="FW1">
-        <v>-3.5849899999999999</v>
-      </c>
-      <c r="FX1">
-        <v>-3.5996700000000001</v>
-      </c>
-      <c r="FY1">
-        <v>-3.6143100000000001</v>
-      </c>
-      <c r="FZ1">
-        <v>-3.6290900000000001</v>
-      </c>
-      <c r="GA1">
-        <v>-3.64378</v>
-      </c>
-      <c r="GB1">
-        <v>-3.6585000000000001</v>
-      </c>
-      <c r="GC1">
-        <v>-3.6732300000000002</v>
-      </c>
-      <c r="GD1">
-        <v>-3.6879599999999999</v>
-      </c>
-      <c r="GE1">
-        <v>-3.70269</v>
-      </c>
-      <c r="GF1">
-        <v>-3.7173600000000002</v>
-      </c>
-      <c r="GG1">
-        <v>-3.7321200000000001</v>
-      </c>
-      <c r="GH1">
-        <v>-3.7469299999999999</v>
-      </c>
-      <c r="GI1">
-        <v>-3.7617500000000001</v>
-      </c>
-      <c r="GJ1">
-        <v>-3.7765</v>
-      </c>
-      <c r="GK1">
-        <v>-3.7913199999999998</v>
-      </c>
-      <c r="GL1">
-        <v>-3.80606</v>
-      </c>
-      <c r="GM1">
-        <v>-3.8209399999999998</v>
-      </c>
-      <c r="GN1">
-        <v>-3.8357600000000001</v>
-      </c>
-      <c r="GO1">
-        <v>-3.85059</v>
-      </c>
-      <c r="GP1">
-        <v>-3.8654000000000002</v>
-      </c>
-      <c r="GQ1">
-        <v>-3.8801999999999999</v>
-      </c>
-      <c r="GR1">
-        <v>-3.8950900000000002</v>
-      </c>
-      <c r="GS1">
-        <v>-3.9099400000000002</v>
-      </c>
-      <c r="GT1">
-        <v>-3.9247999999999998</v>
-      </c>
-      <c r="GU1">
-        <v>-3.9397199999999999</v>
-      </c>
-      <c r="GV1">
-        <v>-3.95458</v>
-      </c>
-      <c r="GW1">
-        <v>-3.9694199999999999</v>
-      </c>
-      <c r="GX1">
-        <v>-3.9843600000000001</v>
-      </c>
-      <c r="GY1">
-        <v>-3.9992299999999998</v>
-      </c>
-      <c r="GZ1">
-        <v>-4.0141</v>
-      </c>
-      <c r="HA1">
-        <v>-4.0290900000000001</v>
-      </c>
-      <c r="HB1">
-        <v>-4.0440199999999997</v>
-      </c>
-      <c r="HC1">
-        <v>-4.0589500000000003</v>
-      </c>
-      <c r="HD1">
-        <v>-4.0738899999999996</v>
-      </c>
-      <c r="HE1">
-        <v>-4.0888499999999999</v>
-      </c>
-      <c r="HF1">
-        <v>-4.1037999999999997</v>
-      </c>
-      <c r="HG1">
-        <v>-4.1187800000000001</v>
-      </c>
-      <c r="HH1">
-        <v>-4.1337200000000003</v>
-      </c>
-      <c r="HI1">
-        <v>-4.1487299999999996</v>
-      </c>
-      <c r="HJ1">
-        <v>-4.1636899999999999</v>
-      </c>
-      <c r="HK1">
-        <v>-4.1786899999999996</v>
-      </c>
-      <c r="HL1">
-        <v>-4.19367</v>
-      </c>
-      <c r="HM1">
-        <v>-4.2086399999999999</v>
-      </c>
-      <c r="HN1">
-        <v>-4.2236599999999997</v>
-      </c>
-      <c r="HO1">
-        <v>-4.2386999999999997</v>
-      </c>
-      <c r="HP1">
-        <v>-4.2537000000000003</v>
-      </c>
-      <c r="HQ1">
-        <v>-4.2687299999999997</v>
-      </c>
-      <c r="HR1">
-        <v>-4.2837699999999996</v>
-      </c>
-      <c r="HS1">
-        <v>-4.2987700000000002</v>
-      </c>
-      <c r="HT1">
-        <v>-4.3138199999999998</v>
-      </c>
-      <c r="HU1">
-        <v>-4.32883</v>
-      </c>
-      <c r="HV1">
-        <v>-4.3438800000000004</v>
-      </c>
-      <c r="HW1">
-        <v>-4.3589000000000002</v>
-      </c>
-      <c r="HX1">
-        <v>-4.3739499999999998</v>
-      </c>
-      <c r="HY1">
-        <v>-4.3890200000000004</v>
-      </c>
-      <c r="HZ1">
-        <v>-4.4040400000000002</v>
-      </c>
-      <c r="IA1">
-        <v>-4.4190800000000001</v>
-      </c>
-      <c r="IB1">
-        <v>-4.4341299999999997</v>
-      </c>
-      <c r="IC1">
-        <v>-4.4492500000000001</v>
-      </c>
-      <c r="ID1">
-        <v>-4.4641299999999999</v>
-      </c>
-      <c r="IE1">
-        <v>-4.4793500000000002</v>
-      </c>
-      <c r="IF1">
-        <v>-4.4944600000000001</v>
-      </c>
-      <c r="IG1">
-        <v>-4.5095299999999998</v>
-      </c>
-      <c r="IH1">
-        <v>-4.5246500000000003</v>
-      </c>
-      <c r="II1">
-        <v>-4.5397400000000001</v>
-      </c>
-      <c r="IJ1">
-        <v>-4.5548299999999999</v>
-      </c>
-      <c r="IK1">
-        <v>-4.56996</v>
-      </c>
-      <c r="IL1">
-        <v>-4.5850099999999996</v>
-      </c>
-      <c r="IM1">
-        <v>-4.6001399999999997</v>
-      </c>
-      <c r="IN1">
-        <v>-4.6152499999999996</v>
-      </c>
-      <c r="IO1">
-        <v>-4.6303799999999997</v>
-      </c>
-      <c r="IP1">
-        <v>-4.6455000000000002</v>
-      </c>
-      <c r="IQ1">
-        <v>-4.6606199999999998</v>
-      </c>
-      <c r="IR1">
-        <v>-4.6757499999999999</v>
-      </c>
-      <c r="IS1">
-        <v>-4.6909000000000001</v>
-      </c>
-      <c r="IT1">
-        <v>-4.70601</v>
-      </c>
-      <c r="IU1">
-        <v>-4.72119</v>
-      </c>
-      <c r="IV1">
-        <v>-4.7363600000000003</v>
-      </c>
-      <c r="IW1">
-        <v>-4.7515000000000001</v>
-      </c>
-      <c r="IX1">
-        <v>-4.76668</v>
-      </c>
-      <c r="IY1">
-        <v>-4.7817100000000003</v>
-      </c>
-      <c r="IZ1">
-        <v>-4.7970100000000002</v>
-      </c>
-      <c r="JA1">
-        <v>-4.8121799999999997</v>
-      </c>
-      <c r="JB1">
-        <v>-4.8273599999999997</v>
-      </c>
-      <c r="JC1">
-        <v>-4.84246</v>
-      </c>
-      <c r="JD1">
-        <v>-4.8576899999999998</v>
-      </c>
-      <c r="JE1">
-        <v>-4.8727499999999999</v>
-      </c>
-      <c r="JF1">
-        <v>-4.88795</v>
-      </c>
-      <c r="JG1">
-        <v>-4.9031799999999999</v>
-      </c>
-      <c r="JH1">
-        <v>-4.91838</v>
-      </c>
-      <c r="JI1">
-        <v>-4.9335699999999996</v>
-      </c>
-      <c r="JJ1">
-        <v>-4.9487699999999997</v>
-      </c>
-      <c r="JK1">
-        <v>-4.9639499999999996</v>
-      </c>
-      <c r="JL1">
-        <v>-4.9791299999999996</v>
-      </c>
-      <c r="JM1">
-        <v>-4.9943200000000001</v>
-      </c>
-      <c r="JN1">
-        <v>-5.0095299999999998</v>
-      </c>
-      <c r="JO1">
-        <v>-5.0246599999999999</v>
-      </c>
-      <c r="JP1">
-        <v>-5.0397999999999996</v>
-      </c>
-      <c r="JQ1">
-        <v>-5.0550899999999999</v>
-      </c>
-      <c r="JR1">
-        <v>-5.0703100000000001</v>
-      </c>
-      <c r="JS1">
-        <v>-5.0855100000000002</v>
-      </c>
-      <c r="JT1">
-        <v>-5.1007400000000001</v>
-      </c>
-      <c r="JU1">
-        <v>-5.1159400000000002</v>
-      </c>
-      <c r="JV1">
-        <v>-5.13117</v>
-      </c>
-      <c r="JW1">
-        <v>-5.14635</v>
-      </c>
-      <c r="JX1">
-        <v>-5.1616200000000001</v>
-      </c>
-      <c r="JY1">
-        <v>-5.1768099999999997</v>
-      </c>
-      <c r="JZ1">
-        <v>-5.1920599999999997</v>
-      </c>
-      <c r="KA1">
-        <v>-5.2073</v>
-      </c>
-      <c r="KB1">
-        <v>-5.2224500000000003</v>
-      </c>
-      <c r="KC1">
-        <v>-5.23773</v>
-      </c>
-      <c r="KD1">
-        <v>-5.2529399999999997</v>
-      </c>
-      <c r="KE1">
-        <v>-5.2682700000000002</v>
-      </c>
-      <c r="KF1">
-        <v>-5.28348</v>
-      </c>
-      <c r="KG1">
-        <v>-5.2987299999999999</v>
-      </c>
-      <c r="KH1">
-        <v>-5.3139700000000003</v>
-      </c>
-      <c r="KI1">
-        <v>-5.3292400000000004</v>
-      </c>
-      <c r="KJ1">
-        <v>-5.3444399999999996</v>
-      </c>
-      <c r="KK1">
-        <v>-5.3596300000000001</v>
-      </c>
-      <c r="KL1">
-        <v>-5.3749799999999999</v>
-      </c>
-      <c r="KM1">
-        <v>-5.3902299999999999</v>
-      </c>
-      <c r="KN1">
-        <v>-5.4054900000000004</v>
-      </c>
-      <c r="KO1">
-        <v>-5.4206399999999997</v>
-      </c>
-      <c r="KP1">
-        <v>-5.4359700000000002</v>
-      </c>
-      <c r="KQ1">
-        <v>-5.4512400000000003</v>
-      </c>
-      <c r="KR1">
-        <v>-5.4664400000000004</v>
-      </c>
-      <c r="KS1">
-        <v>-5.4817400000000003</v>
-      </c>
-      <c r="KT1">
-        <v>-5.49702</v>
-      </c>
-      <c r="KU1">
-        <v>-5.5122</v>
-      </c>
-      <c r="KV1">
-        <v>-5.52745</v>
-      </c>
-      <c r="KW1">
-        <v>-5.5427400000000002</v>
-      </c>
-      <c r="KX1">
-        <v>-5.5580499999999997</v>
-      </c>
-      <c r="KY1">
-        <v>-5.5732900000000001</v>
-      </c>
-      <c r="KZ1">
-        <v>-5.5885300000000004</v>
-      </c>
-      <c r="LA1">
-        <v>-5.6038800000000002</v>
-      </c>
-      <c r="LB1">
-        <v>-5.6191399999999998</v>
-      </c>
-      <c r="LC1">
-        <v>-5.6344599999999998</v>
-      </c>
-      <c r="LD1">
-        <v>-5.6497599999999997</v>
-      </c>
-      <c r="LE1">
-        <v>-5.6648500000000004</v>
-      </c>
-      <c r="LF1">
-        <v>-5.6803100000000004</v>
-      </c>
-      <c r="LG1">
-        <v>-5.6956300000000004</v>
-      </c>
-      <c r="LH1">
-        <v>-5.7107700000000001</v>
-      </c>
-      <c r="LI1">
-        <v>-5.7261499999999996</v>
-      </c>
-      <c r="LJ1">
-        <v>-5.7415099999999999</v>
-      </c>
-      <c r="LK1">
-        <v>-5.7567899999999996</v>
-      </c>
-      <c r="LL1">
-        <v>-5.7721099999999996</v>
-      </c>
-      <c r="LM1">
-        <v>-5.7873700000000001</v>
-      </c>
-      <c r="LN1">
-        <v>-5.8027199999999999</v>
-      </c>
-      <c r="LO1">
-        <v>-5.8180300000000003</v>
-      </c>
-      <c r="LP1">
-        <v>-5.83331</v>
-      </c>
-      <c r="LQ1">
-        <v>-5.8486099999999999</v>
-      </c>
-      <c r="LR1">
-        <v>-5.8639299999999999</v>
-      </c>
-      <c r="LS1">
-        <v>-5.8791599999999997</v>
-      </c>
-      <c r="LT1">
-        <v>-5.8944999999999999</v>
-      </c>
-      <c r="LU1">
-        <v>-5.90984</v>
-      </c>
-      <c r="LV1">
-        <v>-5.9250100000000003</v>
-      </c>
-      <c r="LW1">
-        <v>-5.9403899999999998</v>
-      </c>
-      <c r="LX1">
-        <v>-5.9558099999999996</v>
-      </c>
-      <c r="LY1">
-        <v>-5.9711499999999997</v>
-      </c>
-      <c r="LZ1">
-        <v>-5.98644</v>
-      </c>
-      <c r="MA1">
-        <v>-6.00162</v>
-      </c>
-      <c r="MB1">
-        <v>-6.0170399999999997</v>
-      </c>
-      <c r="MC1">
-        <v>-6.0322800000000001</v>
-      </c>
-      <c r="MD1">
-        <v>-6.0477299999999996</v>
-      </c>
-      <c r="ME1">
-        <v>-6.0629400000000002</v>
-      </c>
-      <c r="MF1">
-        <v>-6.0783399999999999</v>
-      </c>
-      <c r="MG1">
-        <v>-6.0936700000000004</v>
-      </c>
-      <c r="MH1">
-        <v>-6.1090099999999996</v>
-      </c>
-      <c r="MI1">
-        <v>-6.1243600000000002</v>
-      </c>
-      <c r="MJ1">
-        <v>-6.1396499999999996</v>
-      </c>
-      <c r="MK1">
-        <v>-6.1548699999999998</v>
-      </c>
-      <c r="ML1">
-        <v>-6.17035</v>
-      </c>
-      <c r="MM1">
-        <v>-6.1855500000000001</v>
-      </c>
-      <c r="MN1">
-        <v>-6.2009999999999996</v>
-      </c>
-      <c r="MO1">
-        <v>-6.21631</v>
-      </c>
-      <c r="MP1">
-        <v>-6.2316200000000004</v>
-      </c>
-      <c r="MQ1">
-        <v>-6.2469400000000004</v>
-      </c>
-      <c r="MR1">
-        <v>-6.2622999999999998</v>
-      </c>
-      <c r="MS1">
-        <v>-6.2776500000000004</v>
-      </c>
-      <c r="MT1">
-        <v>-6.2930299999999999</v>
-      </c>
-      <c r="MU1">
-        <v>-6.3083400000000003</v>
-      </c>
-      <c r="MV1">
-        <v>-6.3236699999999999</v>
-      </c>
-      <c r="MW1">
-        <v>-6.3390599999999999</v>
-      </c>
-      <c r="MX1">
-        <v>-6.3543599999999998</v>
-      </c>
-      <c r="MY1">
-        <v>-6.3697800000000004</v>
-      </c>
-      <c r="MZ1">
-        <v>-6.3850499999999997</v>
-      </c>
-      <c r="NA1">
-        <v>-6.4004599999999998</v>
-      </c>
-      <c r="NB1">
-        <v>-6.4158299999999997</v>
-      </c>
-      <c r="NC1">
-        <v>-6.4311400000000001</v>
-      </c>
-      <c r="ND1">
-        <v>-6.4465199999999996</v>
-      </c>
-      <c r="NE1">
-        <v>-6.4618900000000004</v>
-      </c>
-      <c r="NF1">
-        <v>-6.4773300000000003</v>
-      </c>
-      <c r="NG1">
-        <v>-6.4924900000000001</v>
-      </c>
-      <c r="NH1">
-        <v>-6.5079399999999996</v>
-      </c>
-      <c r="NI1">
-        <v>-6.5232700000000001</v>
-      </c>
-      <c r="NJ1">
-        <v>-6.5386699999999998</v>
-      </c>
-      <c r="NK1">
-        <v>-6.5540099999999999</v>
-      </c>
-      <c r="NL1">
-        <v>-6.5693799999999998</v>
-      </c>
-      <c r="NM1">
-        <v>-6.58474</v>
-      </c>
-      <c r="NN1">
-        <v>-6.6001700000000003</v>
-      </c>
-      <c r="NO1">
-        <v>-6.6154500000000001</v>
-      </c>
-      <c r="NP1">
-        <v>-6.6308499999999997</v>
-      </c>
-      <c r="NQ1">
-        <v>-6.6462199999999996</v>
-      </c>
-      <c r="NR1">
-        <v>-6.6616200000000001</v>
-      </c>
-      <c r="NS1">
-        <v>-6.6769800000000004</v>
-      </c>
-      <c r="NT1">
-        <v>-6.6922499999999996</v>
-      </c>
-      <c r="NU1">
-        <v>-6.7076900000000004</v>
-      </c>
-      <c r="NV1">
-        <v>-6.7230800000000004</v>
-      </c>
-      <c r="NW1">
-        <v>-6.7384300000000001</v>
-      </c>
-      <c r="NX1">
-        <v>-6.7538799999999997</v>
-      </c>
-      <c r="NY1">
-        <v>-6.7691299999999996</v>
-      </c>
-      <c r="NZ1">
-        <v>-6.7845800000000001</v>
-      </c>
-      <c r="OA1">
-        <v>-6.7999700000000001</v>
-      </c>
-      <c r="OB1">
-        <v>-6.8153499999999996</v>
-      </c>
-      <c r="OC1">
-        <v>-6.8307200000000003</v>
-      </c>
-      <c r="OD1">
-        <v>-6.8461600000000002</v>
-      </c>
-      <c r="OE1">
-        <v>-6.8614499999999996</v>
-      </c>
-      <c r="OF1">
-        <v>-6.8768599999999998</v>
-      </c>
-      <c r="OG1">
-        <v>-6.8921900000000003</v>
-      </c>
-      <c r="OH1">
-        <v>-6.9076700000000004</v>
-      </c>
-      <c r="OI1">
-        <v>-6.9229700000000003</v>
-      </c>
-      <c r="OJ1">
-        <v>-6.9384199999999998</v>
-      </c>
-      <c r="OK1">
-        <v>-6.9538000000000002</v>
-      </c>
-      <c r="OL1">
-        <v>-6.9691799999999997</v>
-      </c>
-      <c r="OM1">
-        <v>-6.9846000000000004</v>
-      </c>
-      <c r="ON1">
-        <v>-6.9999700000000002</v>
-      </c>
-      <c r="OO1">
-        <v>-7.0153299999999996</v>
-      </c>
-      <c r="OP1">
-        <v>-7.03071</v>
-      </c>
-      <c r="OQ1">
-        <v>-7.04603</v>
-      </c>
-      <c r="OR1">
-        <v>-7.0614800000000004</v>
-      </c>
-      <c r="OS1">
-        <v>-7.0768300000000002</v>
-      </c>
-      <c r="OT1">
-        <v>-7.0922499999999999</v>
-      </c>
-      <c r="OU1">
-        <v>-7.1076899999999998</v>
-      </c>
-      <c r="OV1">
-        <v>-7.1231</v>
-      </c>
-      <c r="OW1">
-        <v>-7.1384800000000004</v>
-      </c>
-      <c r="OX1">
-        <v>-7.15388</v>
-      </c>
-      <c r="OY1">
-        <v>-7.1691900000000004</v>
-      </c>
-      <c r="OZ1">
-        <v>-7.1846100000000002</v>
-      </c>
-      <c r="PA1">
-        <v>-7.2000099999999998</v>
-      </c>
-      <c r="PB1">
-        <v>-7.2154400000000001</v>
-      </c>
-      <c r="PC1">
-        <v>-7.2308300000000001</v>
-      </c>
-      <c r="PD1">
-        <v>-7.2462400000000002</v>
-      </c>
-      <c r="PE1">
-        <v>-7.2615699999999999</v>
-      </c>
-      <c r="PF1">
-        <v>-7.27698</v>
-      </c>
-      <c r="PG1">
-        <v>-7.29244</v>
-      </c>
-      <c r="PH1">
-        <v>-7.3077800000000002</v>
-      </c>
-      <c r="PI1">
-        <v>-7.3231900000000003</v>
-      </c>
-      <c r="PJ1">
-        <v>-7.3385999999999996</v>
-      </c>
-      <c r="PK1">
-        <v>-7.3540200000000002</v>
-      </c>
-      <c r="PL1">
-        <v>-7.3692399999999996</v>
-      </c>
-      <c r="PM1">
-        <v>-7.3848500000000001</v>
-      </c>
-      <c r="PN1">
-        <v>-7.4001700000000001</v>
-      </c>
-      <c r="PO1">
-        <v>-7.4156199999999997</v>
-      </c>
-      <c r="PP1">
-        <v>-7.4310200000000002</v>
-      </c>
-      <c r="PQ1">
-        <v>-7.4463900000000001</v>
-      </c>
-      <c r="PR1">
-        <v>-7.4618099999999998</v>
-      </c>
-      <c r="PS1">
-        <v>-7.4772299999999996</v>
-      </c>
-      <c r="PT1">
-        <v>-7.4926500000000003</v>
-      </c>
-      <c r="PU1">
-        <v>-7.5079900000000004</v>
-      </c>
-      <c r="PV1">
-        <v>-7.52346</v>
-      </c>
-      <c r="PW1">
-        <v>-7.5389200000000001</v>
-      </c>
-      <c r="PX1">
-        <v>-7.5543100000000001</v>
-      </c>
-      <c r="PY1">
-        <v>-7.5697299999999998</v>
-      </c>
-      <c r="PZ1">
-        <v>-7.5851499999999996</v>
-      </c>
-      <c r="QA1">
-        <v>-7.6005399999999996</v>
-      </c>
-      <c r="QB1">
-        <v>-7.6159499999999998</v>
-      </c>
-      <c r="QC1">
-        <v>-7.6314000000000002</v>
-      </c>
-      <c r="QD1">
-        <v>-7.6466599999999998</v>
-      </c>
-      <c r="QE1">
-        <v>-7.6622000000000003</v>
-      </c>
-      <c r="QF1">
-        <v>-7.6774699999999996</v>
-      </c>
-      <c r="QG1">
-        <v>-7.69306</v>
-      </c>
-      <c r="QH1">
-        <v>-7.7083300000000001</v>
-      </c>
-      <c r="QI1">
-        <v>-7.7238499999999997</v>
-      </c>
-      <c r="QJ1">
-        <v>-7.7392200000000004</v>
-      </c>
-      <c r="QK1">
-        <v>-7.75467</v>
-      </c>
-      <c r="QL1">
-        <v>-7.7700899999999997</v>
-      </c>
-      <c r="QM1">
-        <v>-7.7854999999999999</v>
-      </c>
-      <c r="QN1">
-        <v>-7.8008699999999997</v>
-      </c>
-      <c r="QO1">
-        <v>-7.8162900000000004</v>
-      </c>
-      <c r="QP1">
-        <v>-7.8318000000000003</v>
-      </c>
-      <c r="QQ1">
-        <v>-7.8471299999999999</v>
-      </c>
-      <c r="QR1">
-        <v>-7.8625299999999996</v>
-      </c>
-      <c r="QS1">
-        <v>-7.8780099999999997</v>
-      </c>
-      <c r="QT1">
-        <v>-7.8934499999999996</v>
-      </c>
-      <c r="QU1">
-        <v>-7.9087800000000001</v>
-      </c>
-      <c r="QV1">
-        <v>-7.9242600000000003</v>
-      </c>
-      <c r="QW1">
-        <v>-7.9396899999999997</v>
-      </c>
-      <c r="QX1">
-        <v>-7.9551499999999997</v>
-      </c>
-      <c r="QY1">
-        <v>-7.9704800000000002</v>
-      </c>
-      <c r="QZ1">
-        <v>-7.9859799999999996</v>
-      </c>
-      <c r="RA1">
-        <v>-8.00136</v>
-      </c>
-      <c r="RB1">
-        <v>-8.0167999999999999</v>
-      </c>
-      <c r="RC1">
-        <v>-8.0322999999999993</v>
-      </c>
-      <c r="RD1">
-        <v>-8.0476700000000001</v>
-      </c>
-      <c r="RE1">
-        <v>-8.0629100000000005</v>
-      </c>
-      <c r="RF1">
-        <v>-8.0785900000000002</v>
-      </c>
-      <c r="RG1">
-        <v>-8.0939399999999999</v>
-      </c>
-      <c r="RH1">
-        <v>-8.1093600000000006</v>
-      </c>
-      <c r="RI1">
-        <v>-8.1248299999999993</v>
-      </c>
-      <c r="RJ1">
-        <v>-8.1402199999999993</v>
-      </c>
-      <c r="RK1">
-        <v>-8.1556700000000006</v>
-      </c>
-      <c r="RL1">
-        <v>-8.1710499999999993</v>
-      </c>
-      <c r="RM1">
-        <v>-8.1865299999999994</v>
-      </c>
-      <c r="RN1">
-        <v>-8.2019199999999994</v>
-      </c>
-      <c r="RO1">
-        <v>-8.2173999999999996</v>
-      </c>
-      <c r="RP1">
-        <v>-8.2328600000000005</v>
-      </c>
-      <c r="RQ1">
-        <v>-8.2482500000000005</v>
-      </c>
-      <c r="RR1">
-        <v>-8.2636400000000005</v>
-      </c>
-      <c r="RS1">
-        <v>-8.2791200000000007</v>
-      </c>
-      <c r="RT1">
-        <v>-8.2946100000000005</v>
-      </c>
-      <c r="RU1">
-        <v>-8.3099000000000007</v>
-      </c>
-      <c r="RV1">
-        <v>-8.3253299999999992</v>
-      </c>
-      <c r="RW1">
-        <v>-8.3408999999999995</v>
-      </c>
-      <c r="RX1">
-        <v>-8.3563100000000006</v>
-      </c>
-      <c r="RY1">
-        <v>-8.3717299999999994</v>
-      </c>
-      <c r="RZ1">
-        <v>-8.38706</v>
-      </c>
-      <c r="SA1">
-        <v>-8.4026099999999992</v>
-      </c>
-      <c r="SB1">
-        <v>-8.4180700000000002</v>
-      </c>
-      <c r="SC1">
-        <v>-8.4334299999999995</v>
-      </c>
-      <c r="SD1">
-        <v>-8.4488900000000005</v>
-      </c>
-      <c r="SE1">
-        <v>-8.4643599999999992</v>
-      </c>
-      <c r="SF1">
-        <v>-8.4797999999999991</v>
-      </c>
-      <c r="SG1">
-        <v>-8.4952500000000004</v>
-      </c>
-      <c r="SH1">
-        <v>-8.5106699999999993</v>
-      </c>
-      <c r="SI1">
-        <v>-8.5260800000000003</v>
-      </c>
-      <c r="SJ1">
-        <v>-8.5415399999999995</v>
-      </c>
-      <c r="SK1">
-        <v>-8.55701</v>
-      </c>
-      <c r="SL1">
-        <v>-8.5724199999999993</v>
-      </c>
-      <c r="SM1">
-        <v>-8.5879200000000004</v>
-      </c>
-      <c r="SN1">
-        <v>-8.6033500000000007</v>
-      </c>
-      <c r="SO1">
-        <v>-8.6187199999999997</v>
-      </c>
-      <c r="SP1">
-        <v>-8.6341900000000003</v>
-      </c>
-      <c r="SQ1">
-        <v>-8.64968</v>
-      </c>
-      <c r="SR1">
-        <v>-8.6650399999999994</v>
-      </c>
-      <c r="SS1">
-        <v>-8.6805000000000003</v>
-      </c>
-      <c r="ST1">
-        <v>-8.6959199999999992</v>
-      </c>
-      <c r="SU1">
-        <v>-8.7114200000000004</v>
-      </c>
-      <c r="SV1">
-        <v>-8.7269100000000002</v>
-      </c>
-      <c r="SW1">
-        <v>-8.7422799999999992</v>
-      </c>
-      <c r="SX1">
-        <v>-8.7578300000000002</v>
-      </c>
-      <c r="SY1">
-        <v>-8.7731300000000001</v>
-      </c>
-      <c r="SZ1">
-        <v>-8.7886799999999994</v>
-      </c>
-      <c r="TA1">
-        <v>-8.8040900000000004</v>
-      </c>
-      <c r="TB1">
-        <v>-8.8194900000000001</v>
-      </c>
-      <c r="TC1">
-        <v>-8.8350000000000009</v>
-      </c>
-      <c r="TD1">
-        <v>-8.8503399999999992</v>
-      </c>
-      <c r="TE1">
-        <v>-8.8657900000000005</v>
-      </c>
-      <c r="TF1">
-        <v>-8.8812700000000007</v>
-      </c>
-      <c r="TG1">
-        <v>-8.8967899999999993</v>
-      </c>
-      <c r="TH1">
-        <v>-8.9122299999999992</v>
-      </c>
-      <c r="TI1">
-        <v>-8.9277499999999996</v>
-      </c>
-      <c r="TJ1">
-        <v>-8.9431399999999996</v>
-      </c>
-      <c r="TK1">
-        <v>-8.9585500000000007</v>
-      </c>
-      <c r="TL1">
-        <v>-8.9739900000000006</v>
-      </c>
-      <c r="TM1">
-        <v>-8.9894200000000009</v>
-      </c>
-      <c r="TN1">
-        <v>-9.0049100000000006</v>
-      </c>
-      <c r="TO1">
-        <v>-9.0202899999999993</v>
-      </c>
-      <c r="TP1">
-        <v>-9.0358199999999993</v>
-      </c>
-      <c r="TQ1">
-        <v>-9.0512700000000006</v>
-      </c>
-      <c r="TR1">
-        <v>-9.0666700000000002</v>
-      </c>
-      <c r="TS1">
-        <v>-9.0821199999999997</v>
-      </c>
-      <c r="TT1">
-        <v>-9.0976700000000008</v>
-      </c>
-      <c r="TU1">
-        <v>-9.1130600000000008</v>
-      </c>
-      <c r="TV1">
-        <v>-9.1285100000000003</v>
-      </c>
-      <c r="TW1">
-        <v>-9.1439500000000002</v>
-      </c>
-      <c r="TX1">
-        <v>-9.15944</v>
-      </c>
-      <c r="TY1">
-        <v>-9.1749799999999997</v>
-      </c>
-      <c r="TZ1">
-        <v>-9.1902699999999999</v>
-      </c>
-      <c r="UA1">
-        <v>-9.2057400000000005</v>
-      </c>
-      <c r="UB1">
-        <v>-9.2212800000000001</v>
-      </c>
-      <c r="UC1">
-        <v>-9.23672</v>
-      </c>
-      <c r="UD1">
-        <v>-9.2521699999999996</v>
-      </c>
-      <c r="UE1">
-        <v>-9.2675000000000001</v>
-      </c>
-      <c r="UF1">
-        <v>-9.2830600000000008</v>
-      </c>
-      <c r="UG1">
-        <v>-9.29861</v>
-      </c>
-      <c r="UH1">
-        <v>-9.3139400000000006</v>
-      </c>
-      <c r="UI1">
-        <v>-9.3294599999999992</v>
-      </c>
-      <c r="UJ1">
-        <v>-9.3447999999999993</v>
-      </c>
-      <c r="UK1">
-        <v>-9.3604299999999991</v>
-      </c>
-      <c r="UL1">
-        <v>-9.3757800000000007</v>
-      </c>
-      <c r="UM1">
-        <v>-9.3912300000000002</v>
-      </c>
-      <c r="UN1">
-        <v>-9.40672</v>
-      </c>
-      <c r="UO1">
-        <v>-9.42211</v>
-      </c>
-      <c r="UP1">
-        <v>-9.4376200000000008</v>
-      </c>
-      <c r="UQ1">
-        <v>-9.4530899999999995</v>
-      </c>
-      <c r="UR1">
-        <v>-9.4686000000000003</v>
-      </c>
-      <c r="US1">
-        <v>-9.4840900000000001</v>
-      </c>
-      <c r="UT1">
-        <v>-9.4994899999999998</v>
-      </c>
-      <c r="UU1">
-        <v>-9.5148799999999998</v>
-      </c>
-      <c r="UV1">
-        <v>-9.5303900000000006</v>
-      </c>
-      <c r="UW1">
-        <v>-9.5456199999999995</v>
-      </c>
-      <c r="UX1">
-        <v>-9.5612600000000008</v>
-      </c>
-      <c r="UY1">
-        <v>-9.5767699999999998</v>
-      </c>
-      <c r="UZ1">
-        <v>-9.5921500000000002</v>
-      </c>
-      <c r="VA1">
-        <v>-9.6076499999999996</v>
-      </c>
-      <c r="VB1">
-        <v>-9.6231799999999996</v>
-      </c>
-      <c r="VC1">
-        <v>-9.6386699999999994</v>
-      </c>
-      <c r="VD1">
-        <v>-9.6541300000000003</v>
-      </c>
-      <c r="VE1">
-        <v>-9.6694700000000005</v>
-      </c>
-      <c r="VF1">
-        <v>-9.6850000000000005</v>
-      </c>
-      <c r="VG1">
-        <v>-9.7004900000000003</v>
-      </c>
-      <c r="VH1">
-        <v>-9.7158999999999995</v>
-      </c>
-      <c r="VI1">
-        <v>-9.7313600000000005</v>
-      </c>
-      <c r="VJ1">
-        <v>-9.7466100000000004</v>
-      </c>
-      <c r="VK1">
-        <v>-9.7623999999999995</v>
-      </c>
-      <c r="VL1">
-        <v>-9.7777899999999995</v>
-      </c>
-      <c r="VM1">
-        <v>-9.7932600000000001</v>
-      </c>
-      <c r="VN1">
-        <v>-9.8085699999999996</v>
-      </c>
-      <c r="VO1">
-        <v>-9.8240999999999996</v>
-      </c>
-      <c r="VP1">
-        <v>-9.8397199999999998</v>
-      </c>
-      <c r="VQ1">
-        <v>-9.8551000000000002</v>
-      </c>
-      <c r="VR1">
-        <v>-9.8705499999999997</v>
-      </c>
-      <c r="VS1">
-        <v>-9.8860700000000001</v>
-      </c>
-      <c r="VT1">
-        <v>-9.9014799999999994</v>
-      </c>
-      <c r="VU1">
-        <v>-9.9169800000000006</v>
-      </c>
-      <c r="VV1">
-        <v>-9.9323599999999992</v>
-      </c>
-      <c r="VW1">
-        <v>-9.9479900000000008</v>
-      </c>
-      <c r="VX1">
-        <v>-9.9632699999999996</v>
-      </c>
-      <c r="VY1">
-        <v>-9.9787300000000005</v>
-      </c>
-      <c r="VZ1">
-        <v>-9.9943200000000001</v>
-      </c>
-      <c r="WA1">
-        <v>-10.0097</v>
-      </c>
-      <c r="WB1">
-        <v>-10.0252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:600" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>4.0000099999999996</v>
-      </c>
-      <c r="D2">
-        <v>4.0000099999999996</v>
-      </c>
-      <c r="E2">
-        <v>4.0000099999999996</v>
-      </c>
-      <c r="F2">
-        <v>4.0000099999999996</v>
-      </c>
-      <c r="G2">
-        <v>4.0000099999999996</v>
-      </c>
-      <c r="H2">
-        <v>4.0000099999999996</v>
-      </c>
-      <c r="I2">
-        <v>4.0000200000000001</v>
-      </c>
-      <c r="J2">
-        <v>4.0000200000000001</v>
-      </c>
-      <c r="K2">
-        <v>4.0000200000000001</v>
-      </c>
-      <c r="L2">
-        <v>4.0000200000000001</v>
-      </c>
-      <c r="M2">
-        <v>4.0000200000000001</v>
-      </c>
-      <c r="N2">
-        <v>4.0000200000000001</v>
-      </c>
-      <c r="O2">
-        <v>4.0000299999999998</v>
-      </c>
-      <c r="P2">
-        <v>4.0000299999999998</v>
-      </c>
-      <c r="Q2">
-        <v>4.0000299999999998</v>
-      </c>
-      <c r="R2">
-        <v>4.0000299999999998</v>
-      </c>
-      <c r="S2">
-        <v>4.0000299999999998</v>
-      </c>
-      <c r="T2">
-        <v>4.0000299999999998</v>
-      </c>
-      <c r="U2">
-        <v>4.0000400000000003</v>
-      </c>
-      <c r="V2">
-        <v>4.0000400000000003</v>
-      </c>
-      <c r="W2">
-        <v>4.0000400000000003</v>
-      </c>
-      <c r="X2">
-        <v>4.0000400000000003</v>
-      </c>
-      <c r="Y2">
-        <v>4.0000400000000003</v>
-      </c>
-      <c r="Z2">
-        <v>4.0000400000000003</v>
-      </c>
-      <c r="AA2">
-        <v>4.0000499999999999</v>
-      </c>
-      <c r="AB2">
-        <v>4.0000499999999999</v>
-      </c>
-      <c r="AC2">
-        <v>4.0000499999999999</v>
-      </c>
-      <c r="AD2">
-        <v>4.0000499999999999</v>
-      </c>
-      <c r="AE2">
-        <v>4.0000600000000004</v>
-      </c>
-      <c r="AF2">
-        <v>4.0000600000000004</v>
-      </c>
-      <c r="AG2">
-        <v>4.00007</v>
-      </c>
-      <c r="AH2">
-        <v>4.0000799999999996</v>
-      </c>
-      <c r="AI2">
-        <v>4.0000900000000001</v>
-      </c>
-      <c r="AJ2">
-        <v>4.0000999999999998</v>
-      </c>
-      <c r="AK2">
-        <v>4.0001199999999999</v>
-      </c>
-      <c r="AL2">
-        <v>4.0001499999999997</v>
-      </c>
-      <c r="AM2">
-        <v>4.0002199999999997</v>
-      </c>
-      <c r="AN2">
-        <v>4.0002599999999999</v>
-      </c>
-      <c r="AO2">
-        <v>4.0003099999999998</v>
-      </c>
-      <c r="AP2">
-        <v>4.0003799999999998</v>
-      </c>
-      <c r="AQ2">
-        <v>4.0004600000000003</v>
-      </c>
-      <c r="AR2">
-        <v>4.0005499999999996</v>
-      </c>
-      <c r="AS2">
-        <v>4.0006599999999999</v>
-      </c>
-      <c r="AT2">
-        <v>4.0007799999999998</v>
-      </c>
-      <c r="AU2">
-        <v>4.0009300000000003</v>
-      </c>
-      <c r="AV2">
-        <v>4.0011099999999997</v>
-      </c>
-      <c r="AW2">
-        <v>4.0013199999999998</v>
-      </c>
-      <c r="AX2">
-        <v>4.0015599999999996</v>
-      </c>
-      <c r="AY2">
-        <v>4.0018399999999996</v>
-      </c>
-      <c r="AZ2">
-        <v>4.0021699999999996</v>
-      </c>
-      <c r="BA2">
-        <v>4.0025300000000001</v>
-      </c>
-      <c r="BB2">
-        <v>4.0029500000000002</v>
-      </c>
-      <c r="BC2">
-        <v>4.0034299999999998</v>
-      </c>
-      <c r="BD2">
-        <v>4.0039600000000002</v>
-      </c>
-      <c r="BE2">
-        <v>4.0045700000000002</v>
-      </c>
-      <c r="BF2">
-        <v>4.0052399999999997</v>
-      </c>
-      <c r="BG2">
-        <v>4.0060000000000002</v>
-      </c>
-      <c r="BH2">
-        <v>4.0068400000000004</v>
-      </c>
-      <c r="BI2">
-        <v>4.0077600000000002</v>
-      </c>
-      <c r="BJ2">
-        <v>4.0087900000000003</v>
-      </c>
-      <c r="BK2">
-        <v>4.0099200000000002</v>
-      </c>
-      <c r="BL2">
-        <v>4.0111600000000003</v>
-      </c>
-      <c r="BM2">
-        <v>4.0125299999999999</v>
-      </c>
-      <c r="BN2">
-        <v>4.0140399999999996</v>
-      </c>
-      <c r="BO2">
-        <v>4.0156900000000002</v>
-      </c>
-      <c r="BP2">
-        <v>4.0174799999999999</v>
-      </c>
-      <c r="BQ2">
-        <v>4.0194200000000002</v>
-      </c>
-      <c r="BR2">
-        <v>4.0215500000000004</v>
-      </c>
-      <c r="BS2">
-        <v>4.0238399999999999</v>
-      </c>
-      <c r="BT2">
-        <v>4.0263799999999996</v>
-      </c>
-      <c r="BU2">
-        <v>4.0293999999999999</v>
-      </c>
-      <c r="BV2">
-        <v>4.0325800000000003</v>
-      </c>
-      <c r="BW2">
-        <v>4.0396200000000002</v>
-      </c>
-      <c r="BX2">
-        <v>4.04305</v>
-      </c>
-      <c r="BY2">
-        <v>4.0493600000000001</v>
-      </c>
-      <c r="BZ2">
-        <v>4.0537299999999998</v>
-      </c>
-      <c r="CA2">
-        <v>4.0579499999999999</v>
-      </c>
-      <c r="CB2">
-        <v>4.6284299999999998</v>
-      </c>
-      <c r="CC2">
-        <v>4.5187999999999997</v>
-      </c>
-      <c r="CD2">
-        <v>4.7679</v>
-      </c>
-      <c r="CE2">
-        <v>4.31006</v>
-      </c>
-      <c r="CF2">
-        <v>4.7495399999999997</v>
-      </c>
-      <c r="CG2">
-        <v>4.1473699999999996</v>
-      </c>
-      <c r="CH2">
-        <v>4.1549300000000002</v>
-      </c>
-      <c r="CI2">
-        <v>4.1629500000000004</v>
-      </c>
-      <c r="CJ2">
-        <v>4.1712999999999996</v>
-      </c>
-      <c r="CK2">
-        <v>5.0989300000000002</v>
-      </c>
-      <c r="CL2">
-        <v>4.2479399999999998</v>
-      </c>
-      <c r="CM2">
-        <v>4.2587799999999998</v>
-      </c>
-      <c r="CN2">
-        <v>4.2957200000000002</v>
-      </c>
-      <c r="CO2">
-        <v>4.3082599999999998</v>
-      </c>
-      <c r="CP2">
-        <v>4.4067400000000001</v>
-      </c>
-      <c r="CQ2">
-        <v>4.4219200000000001</v>
-      </c>
-      <c r="CR2">
-        <v>4.4379600000000003</v>
-      </c>
-      <c r="CS2">
-        <v>5.7089699999999999</v>
-      </c>
-      <c r="CT2">
-        <v>4.6433799999999996</v>
-      </c>
-      <c r="CU2">
-        <v>4.7086300000000003</v>
-      </c>
-      <c r="CV2">
-        <v>4.9403600000000001</v>
-      </c>
-      <c r="CW2">
-        <v>5.0917199999999996</v>
-      </c>
-      <c r="CX2">
-        <v>5.1271300000000002</v>
-      </c>
-      <c r="CY2">
-        <v>5.8041</v>
-      </c>
-      <c r="CZ2">
-        <v>6.15062</v>
-      </c>
-      <c r="DA2">
-        <v>5.4988200000000003</v>
-      </c>
-      <c r="DB2">
-        <v>5.54244</v>
-      </c>
-      <c r="DC2">
-        <v>5.5882899999999998</v>
-      </c>
-      <c r="DD2">
-        <v>5.6336300000000001</v>
-      </c>
-      <c r="DE2">
-        <v>6.6279399999999997</v>
-      </c>
-      <c r="DF2">
-        <v>5.9375799999999996</v>
-      </c>
-      <c r="DG2">
-        <v>5.9885700000000002</v>
-      </c>
-      <c r="DH2">
-        <v>6.0404299999999997</v>
-      </c>
-      <c r="DI2">
-        <v>6.09267</v>
-      </c>
-      <c r="DJ2">
-        <v>6.1452400000000003</v>
-      </c>
-      <c r="DK2">
-        <v>6.8636299999999997</v>
-      </c>
-      <c r="DL2">
-        <v>6.5523999999999996</v>
-      </c>
-      <c r="DM2">
-        <v>7.2226900000000001</v>
-      </c>
-      <c r="DN2">
-        <v>6.6121600000000003</v>
-      </c>
-      <c r="DO2">
-        <v>6.6806200000000002</v>
-      </c>
-      <c r="DP2">
-        <v>6.7408900000000003</v>
-      </c>
-      <c r="DQ2">
-        <v>6.8018299999999998</v>
-      </c>
-      <c r="DR2">
-        <v>6.9938000000000002</v>
-      </c>
-      <c r="DS2">
-        <v>7.0572900000000001</v>
-      </c>
-      <c r="DT2">
-        <v>7.1216600000000003</v>
-      </c>
-      <c r="DU2">
-        <v>7.1863099999999998</v>
-      </c>
-      <c r="DV2">
-        <v>7.4067299999999996</v>
-      </c>
-      <c r="DW2">
-        <v>7.4767999999999999</v>
-      </c>
-      <c r="DX2">
-        <v>7.5433500000000002</v>
-      </c>
-      <c r="DY2">
-        <v>7.6121100000000004</v>
-      </c>
-      <c r="DZ2">
-        <v>7.6821299999999999</v>
-      </c>
-      <c r="EA2">
-        <v>7.8446899999999999</v>
-      </c>
-      <c r="EB2">
-        <v>7.9167100000000001</v>
-      </c>
-      <c r="EC2">
-        <v>7.9892200000000004</v>
-      </c>
-      <c r="ED2">
-        <v>8.0624599999999997</v>
-      </c>
-      <c r="EE2">
-        <v>8.6315600000000003</v>
-      </c>
-      <c r="EF2">
-        <v>8.4309899999999995</v>
-      </c>
-      <c r="EG2">
-        <v>8.5078899999999997</v>
-      </c>
-      <c r="EH2">
-        <v>8.5785099999999996</v>
-      </c>
-      <c r="EI2">
-        <v>8.6651600000000002</v>
-      </c>
-      <c r="EJ2">
-        <v>8.7359200000000001</v>
-      </c>
-      <c r="EK2">
-        <v>8.8239400000000003</v>
-      </c>
-      <c r="EL2">
-        <v>8.8953699999999998</v>
-      </c>
-      <c r="EM2">
-        <v>9.08962</v>
-      </c>
-      <c r="EN2">
-        <v>9.1736400000000007</v>
-      </c>
-      <c r="EO2">
-        <v>9.2648799999999998</v>
-      </c>
-      <c r="EP2">
-        <v>9.3400999999999996</v>
-      </c>
-      <c r="EQ2">
-        <v>9.57151</v>
-      </c>
-      <c r="ER2">
-        <v>9.6579300000000003</v>
-      </c>
-      <c r="ES2">
-        <v>9.7447400000000002</v>
-      </c>
-      <c r="ET2">
-        <v>9.8321199999999997</v>
-      </c>
-      <c r="EU2">
-        <v>9.9963300000000004</v>
-      </c>
-      <c r="EV2">
-        <v>10.085599999999999</v>
-      </c>
-      <c r="EW2">
-        <v>10.2134</v>
-      </c>
-      <c r="EX2">
-        <v>10.3042</v>
-      </c>
-      <c r="EY2">
-        <v>10.481199999999999</v>
-      </c>
-      <c r="EZ2">
-        <v>10.5031</v>
-      </c>
-      <c r="FA2">
-        <v>10.6547</v>
-      </c>
-      <c r="FB2">
-        <v>10.7601</v>
-      </c>
-      <c r="FC2">
-        <v>10.8543</v>
-      </c>
-      <c r="FD2">
-        <v>10.9495</v>
-      </c>
-      <c r="FE2">
-        <v>11.044600000000001</v>
-      </c>
-      <c r="FF2">
-        <v>11.1404</v>
-      </c>
-      <c r="FG2">
-        <v>11.2369</v>
-      </c>
-      <c r="FH2">
-        <v>11.334199999999999</v>
-      </c>
-      <c r="FI2">
-        <v>11.431900000000001</v>
-      </c>
-      <c r="FJ2">
-        <v>11.529199999999999</v>
-      </c>
-      <c r="FK2">
-        <v>11.627800000000001</v>
-      </c>
-      <c r="FL2">
-        <v>11.727399999999999</v>
-      </c>
-      <c r="FM2">
-        <v>11.827199999999999</v>
-      </c>
-      <c r="FN2">
-        <v>11.927</v>
-      </c>
-      <c r="FO2">
-        <v>12.028</v>
-      </c>
-      <c r="FP2">
-        <v>12.129200000000001</v>
-      </c>
-      <c r="FQ2">
-        <v>12.2309</v>
-      </c>
-      <c r="FR2">
-        <v>12.332100000000001</v>
-      </c>
-      <c r="FS2">
-        <v>12.434900000000001</v>
-      </c>
-      <c r="FT2">
-        <v>12.5381</v>
-      </c>
-      <c r="FU2">
-        <v>12.642200000000001</v>
-      </c>
-      <c r="FV2">
-        <v>12.7469</v>
-      </c>
-      <c r="FW2">
-        <v>12.8522</v>
-      </c>
-      <c r="FX2">
-        <v>12.957599999999999</v>
-      </c>
-      <c r="FY2">
-        <v>13.0633</v>
-      </c>
-      <c r="FZ2">
-        <v>13.170299999999999</v>
-      </c>
-      <c r="GA2">
-        <v>13.277200000000001</v>
-      </c>
-      <c r="GB2">
-        <v>13.384600000000001</v>
-      </c>
-      <c r="GC2">
-        <v>13.492599999999999</v>
-      </c>
-      <c r="GD2">
-        <v>13.601000000000001</v>
-      </c>
-      <c r="GE2">
-        <v>13.709899999999999</v>
-      </c>
-      <c r="GF2">
-        <v>13.8188</v>
-      </c>
-      <c r="GG2">
-        <v>13.928699999999999</v>
-      </c>
-      <c r="GH2">
-        <v>14.0395</v>
-      </c>
-      <c r="GI2">
-        <v>14.150700000000001</v>
-      </c>
-      <c r="GJ2">
-        <v>14.262</v>
-      </c>
-      <c r="GK2">
-        <v>14.3741</v>
-      </c>
-      <c r="GL2">
-        <v>14.4861</v>
-      </c>
-      <c r="GM2">
-        <v>14.599600000000001</v>
-      </c>
-      <c r="GN2">
-        <v>14.712999999999999</v>
-      </c>
-      <c r="GO2">
-        <v>14.827</v>
-      </c>
-      <c r="GP2">
-        <v>14.9413</v>
-      </c>
-      <c r="GQ2">
-        <v>15.055899999999999</v>
-      </c>
-      <c r="GR2">
-        <v>15.1717</v>
-      </c>
-      <c r="GS2">
-        <v>15.287699999999999</v>
-      </c>
-      <c r="GT2">
-        <v>15.4041</v>
-      </c>
-      <c r="GU2">
-        <v>15.5214</v>
-      </c>
-      <c r="GV2">
-        <v>15.6387</v>
-      </c>
-      <c r="GW2">
-        <v>15.7563</v>
-      </c>
-      <c r="GX2">
-        <v>15.8752</v>
-      </c>
-      <c r="GY2">
-        <v>15.9939</v>
-      </c>
-      <c r="GZ2">
-        <v>16.113</v>
-      </c>
-      <c r="HA2">
-        <v>16.233599999999999</v>
-      </c>
-      <c r="HB2">
-        <v>16.354099999999999</v>
-      </c>
-      <c r="HC2">
-        <v>16.475000000000001</v>
-      </c>
-      <c r="HD2">
-        <v>16.596599999999999</v>
-      </c>
-      <c r="HE2">
-        <v>16.718699999999998</v>
-      </c>
-      <c r="HF2">
-        <v>16.841200000000001</v>
-      </c>
-      <c r="HG2">
-        <v>16.964300000000001</v>
-      </c>
-      <c r="HH2">
-        <v>17.087599999999998</v>
-      </c>
-      <c r="HI2">
-        <v>17.212</v>
-      </c>
-      <c r="HJ2">
-        <v>17.336300000000001</v>
-      </c>
-      <c r="HK2">
-        <v>17.461500000000001</v>
-      </c>
-      <c r="HL2">
-        <v>17.5869</v>
-      </c>
-      <c r="HM2">
-        <v>17.712700000000002</v>
-      </c>
-      <c r="HN2">
-        <v>17.839300000000001</v>
-      </c>
-      <c r="HO2">
-        <v>17.9666</v>
-      </c>
-      <c r="HP2">
-        <v>18.094000000000001</v>
-      </c>
-      <c r="HQ2">
-        <v>18.222000000000001</v>
-      </c>
-      <c r="HR2">
-        <v>18.3507</v>
-      </c>
-      <c r="HS2">
-        <v>18.479500000000002</v>
-      </c>
-      <c r="HT2">
-        <v>18.609100000000002</v>
-      </c>
-      <c r="HU2">
-        <v>18.738700000000001</v>
-      </c>
-      <c r="HV2">
-        <v>18.869299999999999</v>
-      </c>
-      <c r="HW2">
-        <v>19</v>
-      </c>
-      <c r="HX2">
-        <v>19.131399999999999</v>
-      </c>
-      <c r="HY2">
-        <v>19.263500000000001</v>
-      </c>
-      <c r="HZ2">
-        <v>19.395499999999998</v>
-      </c>
-      <c r="IA2">
-        <v>19.528300000000002</v>
-      </c>
-      <c r="IB2">
-        <v>19.6615</v>
-      </c>
-      <c r="IC2">
-        <v>19.7958</v>
-      </c>
-      <c r="ID2">
-        <v>19.9285</v>
-      </c>
-      <c r="IE2">
-        <v>20.064599999999999</v>
-      </c>
-      <c r="IF2">
-        <v>20.200199999999999</v>
-      </c>
-      <c r="IG2">
-        <v>20.335899999999999</v>
-      </c>
-      <c r="IH2">
-        <v>20.4724</v>
-      </c>
-      <c r="II2">
-        <v>20.609200000000001</v>
-      </c>
-      <c r="IJ2">
-        <v>20.746500000000001</v>
-      </c>
-      <c r="IK2">
-        <v>20.884599999999999</v>
-      </c>
-      <c r="IL2">
-        <v>21.022300000000001</v>
-      </c>
-      <c r="IM2">
-        <v>21.161300000000001</v>
-      </c>
-      <c r="IN2">
-        <v>21.3005</v>
-      </c>
-      <c r="IO2">
-        <v>21.4404</v>
-      </c>
-      <c r="IP2">
-        <v>21.5806</v>
-      </c>
-      <c r="IQ2">
-        <v>21.721299999999999</v>
-      </c>
-      <c r="IR2">
-        <v>21.8627</v>
-      </c>
-      <c r="IS2">
-        <v>22.0046</v>
-      </c>
-      <c r="IT2">
-        <v>22.1465</v>
-      </c>
-      <c r="IU2">
-        <v>22.2897</v>
-      </c>
-      <c r="IV2">
-        <v>22.4331</v>
-      </c>
-      <c r="IW2">
-        <v>22.576699999999999</v>
-      </c>
-      <c r="IX2">
-        <v>22.7212</v>
-      </c>
-      <c r="IY2">
-        <v>22.864699999999999</v>
-      </c>
-      <c r="IZ2">
-        <v>23.011299999999999</v>
-      </c>
-      <c r="JA2">
-        <v>23.1571</v>
-      </c>
-      <c r="JB2">
-        <v>23.3034</v>
-      </c>
-      <c r="JC2">
-        <v>23.449400000000001</v>
-      </c>
-      <c r="JD2">
-        <v>23.597100000000001</v>
-      </c>
-      <c r="JE2">
-        <v>23.7437</v>
-      </c>
-      <c r="JF2">
-        <v>23.892099999999999</v>
-      </c>
-      <c r="JG2">
-        <v>24.0412</v>
-      </c>
-      <c r="JH2">
-        <v>24.1905</v>
-      </c>
-      <c r="JI2">
-        <v>24.3401</v>
-      </c>
-      <c r="JJ2">
-        <v>24.490300000000001</v>
-      </c>
-      <c r="JK2">
-        <v>24.640799999999999</v>
-      </c>
-      <c r="JL2">
-        <v>24.791699999999999</v>
-      </c>
-      <c r="JM2">
-        <v>24.943200000000001</v>
-      </c>
-      <c r="JN2">
-        <v>25.095400000000001</v>
-      </c>
-      <c r="JO2">
-        <v>25.247199999999999</v>
-      </c>
-      <c r="JP2">
-        <v>25.3996</v>
-      </c>
-      <c r="JQ2">
-        <v>25.553999999999998</v>
-      </c>
-      <c r="JR2">
-        <v>25.707999999999998</v>
-      </c>
-      <c r="JS2">
-        <v>25.862400000000001</v>
-      </c>
-      <c r="JT2">
-        <v>26.017600000000002</v>
-      </c>
-      <c r="JU2">
-        <v>26.172799999999999</v>
-      </c>
-      <c r="JV2">
-        <v>26.328900000000001</v>
-      </c>
-      <c r="JW2">
-        <v>26.4849</v>
-      </c>
-      <c r="JX2">
-        <v>26.642299999999999</v>
-      </c>
-      <c r="JY2">
-        <v>26.799399999999999</v>
-      </c>
-      <c r="JZ2">
-        <v>26.9575</v>
-      </c>
-      <c r="KA2">
-        <v>27.116</v>
-      </c>
-      <c r="KB2">
-        <v>27.273900000000001</v>
-      </c>
-      <c r="KC2">
-        <v>27.433900000000001</v>
-      </c>
-      <c r="KD2">
-        <v>27.593299999999999</v>
-      </c>
-      <c r="KE2">
-        <v>27.7547</v>
-      </c>
-      <c r="KF2">
-        <v>27.915199999999999</v>
-      </c>
-      <c r="KG2">
-        <v>28.076499999999999</v>
-      </c>
-      <c r="KH2">
-        <v>28.238299999999999</v>
-      </c>
-      <c r="KI2">
-        <v>28.4008</v>
-      </c>
-      <c r="KJ2">
-        <v>28.562999999999999</v>
-      </c>
-      <c r="KK2">
-        <v>28.7257</v>
-      </c>
-      <c r="KL2">
-        <v>28.8904</v>
-      </c>
-      <c r="KM2">
-        <v>29.054600000000001</v>
-      </c>
-      <c r="KN2">
-        <v>29.2193</v>
-      </c>
-      <c r="KO2">
-        <v>29.383299999999998</v>
-      </c>
-      <c r="KP2">
-        <v>29.549800000000001</v>
-      </c>
-      <c r="KQ2">
-        <v>29.716000000000001</v>
-      </c>
-      <c r="KR2">
-        <v>29.882000000000001</v>
-      </c>
-      <c r="KS2">
-        <v>30.049499999999998</v>
-      </c>
-      <c r="KT2">
-        <v>30.217199999999998</v>
-      </c>
-      <c r="KU2">
-        <v>30.3843</v>
-      </c>
-      <c r="KV2">
-        <v>30.552700000000002</v>
-      </c>
-      <c r="KW2">
-        <v>30.722000000000001</v>
-      </c>
-      <c r="KX2">
-        <v>30.8919</v>
-      </c>
-      <c r="KY2">
-        <v>31.061499999999999</v>
-      </c>
-      <c r="KZ2">
-        <v>31.2316</v>
-      </c>
-      <c r="LA2">
-        <v>31.403400000000001</v>
-      </c>
-      <c r="LB2">
-        <v>31.5748</v>
-      </c>
-      <c r="LC2">
-        <v>31.7471</v>
-      </c>
-      <c r="LD2">
-        <v>31.919799999999999</v>
-      </c>
-      <c r="LE2">
-        <v>32.090499999999999</v>
-      </c>
-      <c r="LF2">
-        <v>32.265900000000002</v>
-      </c>
-      <c r="LG2">
-        <v>32.440199999999997</v>
-      </c>
-      <c r="LH2">
-        <v>32.612900000000003</v>
-      </c>
-      <c r="LI2">
-        <v>32.788800000000002</v>
-      </c>
-      <c r="LJ2">
-        <v>32.9649</v>
-      </c>
-      <c r="LK2">
-        <v>33.140599999999999</v>
-      </c>
-      <c r="LL2">
-        <v>33.317300000000003</v>
-      </c>
-      <c r="LM2">
-        <v>33.493699999999997</v>
-      </c>
-      <c r="LN2">
-        <v>33.671500000000002</v>
-      </c>
-      <c r="LO2">
-        <v>33.849499999999999</v>
-      </c>
-      <c r="LP2">
-        <v>34.027500000000003</v>
-      </c>
-      <c r="LQ2">
-        <v>34.206200000000003</v>
-      </c>
-      <c r="LR2">
-        <v>34.385599999999997</v>
-      </c>
-      <c r="LS2">
-        <v>34.564500000000002</v>
-      </c>
-      <c r="LT2">
-        <v>34.745100000000001</v>
-      </c>
-      <c r="LU2">
-        <v>34.926200000000001</v>
-      </c>
-      <c r="LV2">
-        <v>35.105800000000002</v>
-      </c>
-      <c r="LW2">
-        <v>35.2883</v>
-      </c>
-      <c r="LX2">
-        <v>35.471699999999998</v>
-      </c>
-      <c r="LY2">
-        <v>35.654699999999998</v>
-      </c>
-      <c r="LZ2">
-        <v>35.837499999999999</v>
-      </c>
-      <c r="MA2">
-        <v>36.019500000000001</v>
-      </c>
-      <c r="MB2">
-        <v>36.204700000000003</v>
-      </c>
-      <c r="MC2">
-        <v>36.388399999999997</v>
-      </c>
-      <c r="MD2">
-        <v>36.575000000000003</v>
-      </c>
-      <c r="ME2">
-        <v>36.759300000000003</v>
-      </c>
-      <c r="MF2">
-        <v>36.946199999999997</v>
-      </c>
-      <c r="MG2">
-        <v>37.132800000000003</v>
-      </c>
-      <c r="MH2">
-        <v>37.32</v>
-      </c>
-      <c r="MI2">
-        <v>37.5077</v>
-      </c>
-      <c r="MJ2">
-        <v>37.695300000000003</v>
-      </c>
-      <c r="MK2">
-        <v>37.882399999999997</v>
-      </c>
-      <c r="ML2">
-        <v>38.0732</v>
-      </c>
-      <c r="MM2">
-        <v>38.261099999999999</v>
-      </c>
-      <c r="MN2">
-        <v>38.452399999999997</v>
-      </c>
-      <c r="MO2">
-        <v>38.642499999999998</v>
-      </c>
-      <c r="MP2">
-        <v>38.833100000000002</v>
-      </c>
-      <c r="MQ2">
-        <v>39.0242</v>
-      </c>
-      <c r="MR2">
-        <v>39.2164</v>
-      </c>
-      <c r="MS2">
-        <v>39.408900000000003</v>
-      </c>
-      <c r="MT2">
-        <v>39.6023</v>
-      </c>
-      <c r="MU2">
-        <v>39.795200000000001</v>
-      </c>
-      <c r="MV2">
-        <v>39.988700000000001</v>
-      </c>
-      <c r="MW2">
-        <v>40.183700000000002</v>
-      </c>
-      <c r="MX2">
-        <v>40.377899999999997</v>
-      </c>
-      <c r="MY2">
-        <v>40.574100000000001</v>
-      </c>
-      <c r="MZ2">
-        <v>40.768900000000002</v>
-      </c>
-      <c r="NA2">
-        <v>40.965899999999998</v>
-      </c>
-      <c r="NB2">
-        <v>41.1629</v>
-      </c>
-      <c r="NC2">
-        <v>41.3596</v>
-      </c>
-      <c r="ND2">
-        <v>41.557600000000001</v>
-      </c>
-      <c r="NE2">
-        <v>41.756</v>
-      </c>
-      <c r="NF2">
-        <v>41.955800000000004</v>
-      </c>
-      <c r="NG2">
-        <v>42.152500000000003</v>
-      </c>
-      <c r="NH2">
-        <v>42.353200000000001</v>
-      </c>
-      <c r="NI2">
-        <v>42.553100000000001</v>
-      </c>
-      <c r="NJ2">
-        <v>42.754199999999997</v>
-      </c>
-      <c r="NK2">
-        <v>42.955100000000002</v>
-      </c>
-      <c r="NL2">
-        <v>43.156799999999997</v>
-      </c>
-      <c r="NM2">
-        <v>43.358800000000002</v>
-      </c>
-      <c r="NN2">
-        <v>43.562199999999997</v>
-      </c>
-      <c r="NO2">
-        <v>43.764200000000002</v>
-      </c>
-      <c r="NP2">
-        <v>43.968200000000003</v>
-      </c>
-      <c r="NQ2">
-        <v>44.172199999999997</v>
-      </c>
-      <c r="NR2">
-        <v>44.377200000000002</v>
-      </c>
-      <c r="NS2">
-        <v>44.582099999999997</v>
-      </c>
-      <c r="NT2">
-        <v>44.786200000000001</v>
-      </c>
-      <c r="NU2">
-        <v>44.993200000000002</v>
-      </c>
-      <c r="NV2">
-        <v>45.199800000000003</v>
-      </c>
-      <c r="NW2">
-        <v>45.406399999999998</v>
-      </c>
-      <c r="NX2">
-        <v>45.614800000000002</v>
-      </c>
-      <c r="NY2">
-        <v>45.821100000000001</v>
-      </c>
-      <c r="NZ2">
-        <v>46.030500000000004</v>
-      </c>
-      <c r="OA2">
-        <v>46.239600000000003</v>
-      </c>
-      <c r="OB2">
-        <v>46.448999999999998</v>
-      </c>
-      <c r="OC2">
-        <v>46.658700000000003</v>
-      </c>
-      <c r="OD2">
-        <v>46.869900000000001</v>
-      </c>
-      <c r="OE2">
-        <v>47.079500000000003</v>
-      </c>
-      <c r="OF2">
-        <v>47.291200000000003</v>
-      </c>
-      <c r="OG2">
-        <v>47.502299999999998</v>
-      </c>
-      <c r="OH2">
-        <v>47.715899999999998</v>
-      </c>
-      <c r="OI2">
-        <v>47.927500000000002</v>
-      </c>
-      <c r="OJ2">
-        <v>48.141599999999997</v>
-      </c>
-      <c r="OK2">
-        <v>48.355400000000003</v>
-      </c>
-      <c r="OL2">
-        <v>48.569499999999998</v>
-      </c>
-      <c r="OM2">
-        <v>48.784700000000001</v>
-      </c>
-      <c r="ON2">
-        <v>48.999600000000001</v>
-      </c>
-      <c r="OO2">
-        <v>49.214799999999997</v>
-      </c>
-      <c r="OP2">
-        <v>49.430900000000001</v>
-      </c>
-      <c r="OQ2">
-        <v>49.646500000000003</v>
-      </c>
-      <c r="OR2">
-        <v>49.864400000000003</v>
-      </c>
-      <c r="OS2">
-        <v>50.081600000000002</v>
-      </c>
-      <c r="OT2">
-        <v>50.3</v>
-      </c>
-      <c r="OU2">
-        <v>50.519300000000001</v>
-      </c>
-      <c r="OV2">
-        <v>50.738599999999998</v>
-      </c>
-      <c r="OW2">
-        <v>50.957999999999998</v>
-      </c>
-      <c r="OX2">
-        <v>51.177900000000001</v>
-      </c>
-      <c r="OY2">
-        <v>51.397300000000001</v>
-      </c>
-      <c r="OZ2">
-        <v>51.618600000000001</v>
-      </c>
-      <c r="PA2">
-        <v>51.8401</v>
-      </c>
-      <c r="PB2">
-        <v>52.062600000000003</v>
-      </c>
-      <c r="PC2">
-        <v>52.2849</v>
-      </c>
-      <c r="PD2">
-        <v>52.508000000000003</v>
-      </c>
-      <c r="PE2">
-        <v>52.730499999999999</v>
-      </c>
-      <c r="PF2">
-        <v>52.9544</v>
-      </c>
-      <c r="PG2">
-        <v>53.179699999999997</v>
-      </c>
-      <c r="PH2">
-        <v>53.403700000000001</v>
-      </c>
-      <c r="PI2">
-        <v>53.629100000000001</v>
-      </c>
-      <c r="PJ2">
-        <v>53.8551</v>
-      </c>
-      <c r="PK2">
-        <v>54.081699999999998</v>
-      </c>
-      <c r="PL2">
-        <v>54.305700000000002</v>
-      </c>
-      <c r="PM2">
-        <v>54.536099999999998</v>
-      </c>
-      <c r="PN2">
-        <v>54.762599999999999</v>
-      </c>
-      <c r="PO2">
-        <v>54.991500000000002</v>
-      </c>
-      <c r="PP2">
-        <v>55.220100000000002</v>
-      </c>
-      <c r="PQ2">
-        <v>55.448700000000002</v>
-      </c>
-      <c r="PR2">
-        <v>55.678600000000003</v>
-      </c>
-      <c r="PS2">
-        <v>55.908900000000003</v>
-      </c>
-      <c r="PT2">
-        <v>56.139800000000001</v>
-      </c>
-      <c r="PU2">
-        <v>56.369900000000001</v>
-      </c>
-      <c r="PV2">
-        <v>56.602499999999999</v>
-      </c>
-      <c r="PW2">
-        <v>56.8354</v>
-      </c>
-      <c r="PX2">
-        <v>57.067599999999999</v>
-      </c>
-      <c r="PY2">
-        <v>57.300899999999999</v>
-      </c>
-      <c r="PZ2">
-        <v>57.534399999999998</v>
-      </c>
-      <c r="QA2">
-        <v>57.768099999999997</v>
-      </c>
-      <c r="QB2">
-        <v>58.002600000000001</v>
-      </c>
-      <c r="QC2">
-        <v>58.238199999999999</v>
-      </c>
-      <c r="QD2">
-        <v>58.471499999999999</v>
-      </c>
-      <c r="QE2">
-        <v>58.709400000000002</v>
-      </c>
-      <c r="QF2">
-        <v>58.9435</v>
-      </c>
-      <c r="QG2">
-        <v>59.183199999999999</v>
-      </c>
-      <c r="QH2">
-        <v>59.418300000000002</v>
-      </c>
-      <c r="QI2">
-        <v>59.657800000000002</v>
-      </c>
-      <c r="QJ2">
-        <v>59.895499999999998</v>
-      </c>
-      <c r="QK2">
-        <v>60.134900000000002</v>
-      </c>
-      <c r="QL2">
-        <v>60.374400000000001</v>
-      </c>
-      <c r="QM2">
-        <v>60.613999999999997</v>
-      </c>
-      <c r="QN2">
-        <v>60.8536</v>
-      </c>
-      <c r="QO2">
-        <v>61.094299999999997</v>
-      </c>
-      <c r="QP2">
-        <v>61.3371</v>
-      </c>
-      <c r="QQ2">
-        <v>61.577500000000001</v>
-      </c>
-      <c r="QR2">
-        <v>61.819400000000002</v>
-      </c>
-      <c r="QS2">
-        <v>62.063099999999999</v>
-      </c>
-      <c r="QT2">
-        <v>62.3065</v>
-      </c>
-      <c r="QU2">
-        <v>62.548900000000003</v>
-      </c>
-      <c r="QV2">
-        <v>62.793900000000001</v>
-      </c>
-      <c r="QW2">
-        <v>63.038699999999999</v>
-      </c>
-      <c r="QX2">
-        <v>63.284399999999998</v>
-      </c>
-      <c r="QY2">
-        <v>63.528500000000001</v>
-      </c>
-      <c r="QZ2">
-        <v>63.7759</v>
-      </c>
-      <c r="RA2">
-        <v>64.021799999999999</v>
-      </c>
-      <c r="RB2">
-        <v>64.269099999999995</v>
-      </c>
-      <c r="RC2">
-        <v>64.517799999999994</v>
-      </c>
-      <c r="RD2">
-        <v>64.765000000000001</v>
-      </c>
-      <c r="RE2">
-        <v>65.010599999999997</v>
-      </c>
-      <c r="RF2">
-        <v>65.263599999999997</v>
-      </c>
-      <c r="RG2">
-        <v>65.511799999999994</v>
-      </c>
-      <c r="RH2">
-        <v>65.761799999999994</v>
-      </c>
-      <c r="RI2">
-        <v>66.012799999999999</v>
-      </c>
-      <c r="RJ2">
-        <v>66.263199999999998</v>
-      </c>
-      <c r="RK2">
-        <v>66.514899999999997</v>
-      </c>
-      <c r="RL2">
-        <v>66.766099999999994</v>
-      </c>
-      <c r="RM2">
-        <v>67.019400000000005</v>
-      </c>
-      <c r="RN2">
-        <v>67.271500000000003</v>
-      </c>
-      <c r="RO2">
-        <v>67.525700000000001</v>
-      </c>
-      <c r="RP2">
-        <v>67.779899999999998</v>
-      </c>
-      <c r="RQ2">
-        <v>68.033699999999996</v>
-      </c>
-      <c r="RR2">
-        <v>68.287800000000004</v>
-      </c>
-      <c r="RS2">
-        <v>68.543800000000005</v>
-      </c>
-      <c r="RT2">
-        <v>68.800600000000003</v>
-      </c>
-      <c r="RU2">
-        <v>69.054500000000004</v>
-      </c>
-      <c r="RV2">
-        <v>69.311099999999996</v>
-      </c>
-      <c r="RW2">
-        <v>69.570599999999999</v>
-      </c>
-      <c r="RX2">
-        <v>69.828000000000003</v>
-      </c>
-      <c r="RY2">
-        <v>70.085800000000006</v>
-      </c>
-      <c r="RZ2">
-        <v>70.342699999999994</v>
-      </c>
-      <c r="SA2">
-        <v>70.603800000000007</v>
-      </c>
-      <c r="SB2">
-        <v>70.863799999999998</v>
-      </c>
-      <c r="SC2">
-        <v>71.122799999999998</v>
-      </c>
-      <c r="SD2">
-        <v>71.383799999999994</v>
-      </c>
-      <c r="SE2">
-        <v>71.645399999999995</v>
-      </c>
-      <c r="SF2">
-        <v>71.906899999999993</v>
-      </c>
-      <c r="SG2">
-        <v>72.169300000000007</v>
-      </c>
-      <c r="SH2">
-        <v>72.4315</v>
-      </c>
-      <c r="SI2">
-        <v>72.694100000000006</v>
-      </c>
-      <c r="SJ2">
-        <v>72.957999999999998</v>
-      </c>
-      <c r="SK2">
-        <v>73.222499999999997</v>
-      </c>
-      <c r="SL2">
-        <v>73.486400000000003</v>
-      </c>
-      <c r="SM2">
-        <v>73.752399999999994</v>
-      </c>
-      <c r="SN2">
-        <v>74.017700000000005</v>
-      </c>
-      <c r="SO2">
-        <v>74.282300000000006</v>
-      </c>
-      <c r="SP2">
-        <v>74.549300000000002</v>
-      </c>
-      <c r="SQ2">
-        <v>74.816900000000004</v>
-      </c>
-      <c r="SR2">
-        <v>75.082899999999995</v>
-      </c>
-      <c r="SS2">
-        <v>75.350999999999999</v>
-      </c>
-      <c r="ST2">
-        <v>75.619</v>
-      </c>
-      <c r="SU2">
-        <v>75.888900000000007</v>
-      </c>
-      <c r="SV2">
-        <v>76.158900000000003</v>
-      </c>
-      <c r="SW2">
-        <v>76.427400000000006</v>
-      </c>
-      <c r="SX2">
-        <v>76.699600000000004</v>
-      </c>
-      <c r="SY2">
-        <v>76.967799999999997</v>
-      </c>
-      <c r="SZ2">
-        <v>77.240899999999996</v>
-      </c>
-      <c r="TA2">
-        <v>77.512</v>
-      </c>
-      <c r="TB2">
-        <v>77.7834</v>
-      </c>
-      <c r="TC2">
-        <v>78.057199999999995</v>
-      </c>
-      <c r="TD2">
-        <v>78.328500000000005</v>
-      </c>
-      <c r="TE2">
-        <v>78.6023</v>
-      </c>
-      <c r="TF2">
-        <v>78.876900000000006</v>
-      </c>
-      <c r="TG2">
-        <v>79.152799999999999</v>
-      </c>
-      <c r="TH2">
-        <v>79.427800000000005</v>
-      </c>
-      <c r="TI2">
-        <v>79.704700000000003</v>
-      </c>
-      <c r="TJ2">
-        <v>79.979799999999997</v>
-      </c>
-      <c r="TK2">
-        <v>80.255700000000004</v>
-      </c>
-      <c r="TL2">
-        <v>80.532499999999999</v>
-      </c>
-      <c r="TM2">
-        <v>80.809700000000007</v>
-      </c>
-      <c r="TN2">
-        <v>81.088399999999993</v>
-      </c>
-      <c r="TO2">
-        <v>81.365600000000001</v>
-      </c>
-      <c r="TP2">
-        <v>81.646000000000001</v>
-      </c>
-      <c r="TQ2">
-        <v>81.925399999999996</v>
-      </c>
-      <c r="TR2">
-        <v>82.204499999999996</v>
-      </c>
-      <c r="TS2">
-        <v>82.484899999999996</v>
-      </c>
-      <c r="TT2">
-        <v>82.767600000000002</v>
-      </c>
-      <c r="TU2">
-        <v>83.047899999999998</v>
-      </c>
-      <c r="TV2">
-        <v>83.329700000000003</v>
-      </c>
-      <c r="TW2">
-        <v>83.611800000000002</v>
-      </c>
-      <c r="TX2">
-        <v>83.895300000000006</v>
-      </c>
-      <c r="TY2">
-        <v>84.180199999999999</v>
-      </c>
-      <c r="TZ2">
-        <v>84.461100000000002</v>
-      </c>
-      <c r="UA2">
-        <v>84.745599999999996</v>
-      </c>
-      <c r="UB2">
-        <v>85.031999999999996</v>
-      </c>
-      <c r="UC2">
-        <v>85.316999999999993</v>
-      </c>
-      <c r="UD2">
-        <v>85.602699999999999</v>
-      </c>
-      <c r="UE2">
-        <v>85.886600000000001</v>
-      </c>
-      <c r="UF2">
-        <v>86.175299999999993</v>
-      </c>
-      <c r="UG2">
-        <v>86.464100000000002</v>
-      </c>
-      <c r="UH2">
-        <v>86.749399999999994</v>
-      </c>
-      <c r="UI2">
-        <v>87.038700000000006</v>
-      </c>
-      <c r="UJ2">
-        <v>87.325299999999999</v>
-      </c>
-      <c r="UK2">
-        <v>87.617599999999996</v>
-      </c>
-      <c r="UL2">
-        <v>87.905299999999997</v>
-      </c>
-      <c r="UM2">
-        <v>88.195099999999996</v>
-      </c>
-      <c r="UN2">
-        <v>88.486500000000007</v>
-      </c>
-      <c r="UO2">
-        <v>88.776200000000003</v>
-      </c>
-      <c r="UP2">
-        <v>89.068700000000007</v>
-      </c>
-      <c r="UQ2">
-        <v>89.360900000000001</v>
-      </c>
-      <c r="UR2">
-        <v>89.654399999999995</v>
-      </c>
-      <c r="US2">
-        <v>89.947999999999993</v>
-      </c>
-      <c r="UT2">
-        <v>90.240200000000002</v>
-      </c>
-      <c r="UU2">
-        <v>90.532899999999998</v>
-      </c>
-      <c r="UV2">
-        <v>90.828400000000002</v>
-      </c>
-      <c r="UW2">
-        <v>91.118899999999996</v>
-      </c>
-      <c r="UX2">
-        <v>91.417599999999993</v>
-      </c>
-      <c r="UY2">
-        <v>91.714600000000004</v>
-      </c>
-      <c r="UZ2">
-        <v>92.009299999999996</v>
-      </c>
-      <c r="VA2">
-        <v>92.307000000000002</v>
-      </c>
-      <c r="VB2">
-        <v>92.605500000000006</v>
-      </c>
-      <c r="VC2">
-        <v>92.903899999999993</v>
-      </c>
-      <c r="VD2">
-        <v>93.202299999999994</v>
-      </c>
-      <c r="VE2">
-        <v>93.498699999999999</v>
-      </c>
-      <c r="VF2">
-        <v>93.799099999999996</v>
-      </c>
-      <c r="VG2">
-        <v>94.099500000000006</v>
-      </c>
-      <c r="VH2">
-        <v>94.398700000000005</v>
-      </c>
-      <c r="VI2">
-        <v>94.699399999999997</v>
-      </c>
-      <c r="VJ2">
-        <v>94.996399999999994</v>
-      </c>
-      <c r="VK2">
-        <v>95.304400000000001</v>
-      </c>
-      <c r="VL2">
-        <v>95.605199999999996</v>
-      </c>
-      <c r="VM2">
-        <v>95.908000000000001</v>
-      </c>
-      <c r="VN2">
-        <v>96.208100000000002</v>
-      </c>
-      <c r="VO2">
-        <v>96.513000000000005</v>
-      </c>
-      <c r="VP2">
-        <v>96.820099999999996</v>
-      </c>
-      <c r="VQ2">
-        <v>97.122900000000001</v>
-      </c>
-      <c r="VR2">
-        <v>97.427700000000002</v>
-      </c>
-      <c r="VS2">
-        <v>97.734300000000005</v>
-      </c>
-      <c r="VT2">
-        <v>98.039299999999997</v>
-      </c>
-      <c r="VU2">
-        <v>98.346500000000006</v>
-      </c>
-      <c r="VV2">
-        <v>98.651799999999994</v>
-      </c>
-      <c r="VW2">
-        <v>98.962500000000006</v>
-      </c>
-      <c r="VX2">
-        <v>99.2667</v>
-      </c>
-      <c r="VY2">
-        <v>99.575100000000006</v>
-      </c>
-      <c r="VZ2">
-        <v>99.886499999999998</v>
-      </c>
-      <c r="WA2">
-        <v>100.194</v>
-      </c>
-      <c r="WB2">
-        <v>100.505</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3989,7 +384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A576" workbookViewId="0">
+    <sheetView topLeftCell="A576" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:I600"/>
     </sheetView>
   </sheetViews>
